--- a/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.52</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.94</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6644</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>53.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.54</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -640,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,17 +652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -671,14 +692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.91</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -687,13 +730,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -773,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,17 +785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -804,14 +825,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.82</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -820,14 +863,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.91</v>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3932</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -836,13 +901,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.51</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +1162,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="4">
@@ -1083,14 +1178,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="5">
@@ -1099,13 +1194,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,91 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6644</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.66</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -570,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -600,32 +622,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002910</t>
+          <t>012239</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达供给改革灵活配置混合</t>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.85</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>82.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9063</t>
+          <t>0.4419</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -638,6 +660,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3932</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -762,252 +1030,6 @@
       </c>
       <c r="H3" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003293</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达科瑞灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8009</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>110012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达科汇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.73</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>75.64</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3932</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011649</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达逆向投资混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2329</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011650</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达逆向投资混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0610</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>540004</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇丰晋信2026周期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>31.29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0200</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1064,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1072,32 +1094,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012239</t>
+          <t>002910</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+          <t>易方达供给改革灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>53.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.27</t>
+          <t>93.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4419</t>
+          <t>1.9063</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1115,112 +1137,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6644</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.66</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.51</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012239</t>
+          <t>163302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+          <t>大摩资源优选混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.27</t>
+          <t>79.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4419</t>
+          <t>0.1996</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -660,6 +677,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -905,7 +1016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1037,7 +1148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1131,7 +1242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002734-利民股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.51</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,26 +666,64 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.56</t>
+          <t>88.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1996</t>
+          <t>0.2430</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -733,36 +788,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012239</t>
+          <t>163302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+          <t>大摩资源优选混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.27</t>
+          <t>79.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4419</t>
+          <t>0.1996</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -771,6 +826,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1016,7 +1165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1148,7 +1297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1242,7 +1391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
